--- a/SimilarRatio.xlsx
+++ b/SimilarRatio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ngrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE6B9C-3E7C-40F8-BD3C-28668735B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047EBDE-9113-4A13-BE55-D90ECBC724F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5897FEB2-1DD2-4E8E-8CC6-88899231BFB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CorrectText</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SumCorrectText</t>
   </si>
   <si>
-    <t>6_1</t>
-  </si>
-  <si>
     <t>6_2</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>7_1</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>2_1</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>8_4</t>
   </si>
   <si>
-    <t>Similar Ratio</t>
-  </si>
-  <si>
-    <t>Sum Similar</t>
-  </si>
-  <si>
     <t>8_5</t>
   </si>
   <si>
@@ -117,6 +105,21 @@
   </si>
   <si>
     <t>SumWrong</t>
+  </si>
+  <si>
+    <t>6 to 11_02</t>
+  </si>
+  <si>
+    <t>1 to 11_01</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>1_1 to 11_01</t>
+  </si>
+  <si>
+    <t>6_1 to 11_02</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD10B1-BFEF-4BE7-A521-8C5FE4B22366}">
-  <dimension ref="A2:M32"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,74 +495,69 @@
     <col min="6" max="6" width="14.796875" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" customWidth="1"/>
     <col min="8" max="8" width="8.796875" customWidth="1"/>
-    <col min="9" max="10" width="18" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.296875" customWidth="1"/>
     <col min="12" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="8.796875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>1067</v>
+        <v>2297</v>
       </c>
       <c r="F3">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>1554</v>
+        <v>2347</v>
       </c>
       <c r="I3">
-        <f>SUM(D3:D100)</f>
-        <v>29493</v>
+        <f>SUM(F3:F100)</f>
+        <v>2975</v>
       </c>
       <c r="J3">
-        <f>I3/L3</f>
-        <v>0.9218002812939522</v>
-      </c>
-      <c r="L3">
         <f>SUM(G3:G100)</f>
-        <v>31995</v>
-      </c>
-      <c r="M3">
-        <f>SUM(F3:F100)</f>
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34402</v>
+      </c>
+      <c r="K3">
+        <f>1-(I3/J3)</f>
+        <v>0.91352246962385908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1946</v>
@@ -571,12 +569,12 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2374</v>
@@ -588,12 +586,12 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>899</v>
@@ -605,12 +603,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>940</v>
@@ -622,29 +620,29 @@
         <v>992</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>917</v>
+        <v>2576</v>
       </c>
       <c r="F8">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1357</v>
@@ -656,12 +654,12 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>420</v>
@@ -673,12 +671,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1780</v>
@@ -690,12 +688,12 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>939</v>
@@ -707,12 +705,12 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>498</v>
@@ -724,12 +722,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>2065</v>
@@ -741,12 +739,12 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2515</v>
@@ -758,12 +756,12 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>2451</v>
@@ -780,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>2566</v>
@@ -797,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2430</v>
@@ -814,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>882</v>
@@ -831,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>870</v>
@@ -848,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>1460</v>
@@ -865,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>1117</v>
@@ -925,6 +923,16 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
